--- a/check_magenta.xlsx
+++ b/check_magenta.xlsx
@@ -740,10 +740,10 @@
         <v/>
       </c>
       <c r="AA4" t="str">
-        <v>Unknown</v>
-      </c>
-      <c r="AB4" t="str">
-        <v/>
+        <v>Payable</v>
+      </c>
+      <c r="AB4">
+        <v>5000</v>
       </c>
     </row>
     <row r="5">
@@ -1858,10 +1858,10 @@
         <v/>
       </c>
       <c r="AA17" t="str">
-        <v>Unknown</v>
-      </c>
-      <c r="AB17" t="str">
-        <v/>
+        <v>Paid</v>
+      </c>
+      <c r="AB17">
+        <v>500</v>
       </c>
     </row>
     <row r="18">
@@ -5126,10 +5126,10 @@
         <v/>
       </c>
       <c r="AA55" t="str">
-        <v>Unknown</v>
-      </c>
-      <c r="AB55" t="str">
-        <v/>
+        <v>Paid</v>
+      </c>
+      <c r="AB55">
+        <v>300</v>
       </c>
     </row>
     <row r="56">
@@ -6674,10 +6674,10 @@
         <v/>
       </c>
       <c r="AA73" t="str">
-        <v>Unknown</v>
-      </c>
-      <c r="AB73" t="str">
-        <v/>
+        <v>Payable</v>
+      </c>
+      <c r="AB73">
+        <v>5000</v>
       </c>
     </row>
     <row r="74">
@@ -9168,10 +9168,10 @@
         <v/>
       </c>
       <c r="AA102" t="str">
-        <v>Unknown</v>
-      </c>
-      <c r="AB102" t="str">
-        <v/>
+        <v>Payable</v>
+      </c>
+      <c r="AB102">
+        <v>200</v>
       </c>
     </row>
     <row r="103">
@@ -9254,10 +9254,10 @@
         <v/>
       </c>
       <c r="AA103" t="str">
-        <v>Unknown</v>
-      </c>
-      <c r="AB103" t="str">
-        <v/>
+        <v>Payable</v>
+      </c>
+      <c r="AB103">
+        <v>300</v>
       </c>
     </row>
     <row r="104">
@@ -11232,10 +11232,10 @@
         <v/>
       </c>
       <c r="AA126" t="str">
-        <v>Unknown</v>
-      </c>
-      <c r="AB126" t="str">
-        <v/>
+        <v>Payable</v>
+      </c>
+      <c r="AB126">
+        <v>300</v>
       </c>
     </row>
     <row r="127">
@@ -11748,10 +11748,10 @@
         <v/>
       </c>
       <c r="AA132" t="str">
-        <v>Unknown</v>
-      </c>
-      <c r="AB132" t="str">
-        <v/>
+        <v>Payable</v>
+      </c>
+      <c r="AB132">
+        <v>100</v>
       </c>
     </row>
     <row r="133">
@@ -11920,10 +11920,10 @@
         <v/>
       </c>
       <c r="AA134" t="str">
-        <v>Unknown</v>
-      </c>
-      <c r="AB134" t="str">
-        <v/>
+        <v>Payable</v>
+      </c>
+      <c r="AB134">
+        <v>300</v>
       </c>
     </row>
     <row r="135">
@@ -12092,10 +12092,10 @@
         <v/>
       </c>
       <c r="AA136" t="str">
-        <v>Unknown</v>
-      </c>
-      <c r="AB136" t="str">
-        <v/>
+        <v>Payable</v>
+      </c>
+      <c r="AB136">
+        <v>5000</v>
       </c>
     </row>
     <row r="137">
@@ -12436,10 +12436,10 @@
         <v/>
       </c>
       <c r="AA140" t="str">
-        <v>Unknown</v>
-      </c>
-      <c r="AB140" t="str">
-        <v/>
+        <v>Payable</v>
+      </c>
+      <c r="AB140">
+        <v>5000</v>
       </c>
     </row>
     <row r="141">
@@ -12522,10 +12522,10 @@
         <v/>
       </c>
       <c r="AA141" t="str">
-        <v>Unknown</v>
-      </c>
-      <c r="AB141" t="str">
-        <v/>
+        <v>Payable</v>
+      </c>
+      <c r="AB141">
+        <v>5000</v>
       </c>
     </row>
     <row r="142">
@@ -12608,10 +12608,10 @@
         <v/>
       </c>
       <c r="AA142" t="str">
-        <v>Unknown</v>
-      </c>
-      <c r="AB142" t="str">
-        <v/>
+        <v>Payable</v>
+      </c>
+      <c r="AB142">
+        <v>5000</v>
       </c>
     </row>
     <row r="143">
@@ -12694,10 +12694,10 @@
         <v/>
       </c>
       <c r="AA143" t="str">
-        <v>Unknown</v>
-      </c>
-      <c r="AB143" t="str">
-        <v/>
+        <v>Payable</v>
+      </c>
+      <c r="AB143">
+        <v>5000</v>
       </c>
     </row>
     <row r="144">
@@ -12780,10 +12780,10 @@
         <v/>
       </c>
       <c r="AA144" t="str">
-        <v>Unknown</v>
-      </c>
-      <c r="AB144" t="str">
-        <v/>
+        <v>Payable</v>
+      </c>
+      <c r="AB144">
+        <v>300</v>
       </c>
     </row>
     <row r="145">
@@ -12866,10 +12866,10 @@
         <v/>
       </c>
       <c r="AA145" t="str">
-        <v>Unknown</v>
-      </c>
-      <c r="AB145" t="str">
-        <v/>
+        <v>Payable</v>
+      </c>
+      <c r="AB145">
+        <v>10000</v>
       </c>
     </row>
     <row r="146">
@@ -12952,10 +12952,10 @@
         <v/>
       </c>
       <c r="AA146" t="str">
-        <v>Unknown</v>
-      </c>
-      <c r="AB146" t="str">
-        <v/>
+        <v>Payable</v>
+      </c>
+      <c r="AB146">
+        <v>10000</v>
       </c>
     </row>
     <row r="147">
@@ -13038,10 +13038,10 @@
         <v/>
       </c>
       <c r="AA147" t="str">
-        <v>Unknown</v>
-      </c>
-      <c r="AB147" t="str">
-        <v/>
+        <v>Payable</v>
+      </c>
+      <c r="AB147">
+        <v>5000</v>
       </c>
     </row>
     <row r="148">
@@ -13124,10 +13124,10 @@
         <v/>
       </c>
       <c r="AA148" t="str">
-        <v>Unknown</v>
-      </c>
-      <c r="AB148" t="str">
-        <v/>
+        <v>Payable</v>
+      </c>
+      <c r="AB148">
+        <v>5000</v>
       </c>
     </row>
     <row r="149">
@@ -13296,10 +13296,10 @@
         <v/>
       </c>
       <c r="AA150" t="str">
-        <v>Unknown</v>
-      </c>
-      <c r="AB150" t="str">
-        <v/>
+        <v>Payable</v>
+      </c>
+      <c r="AB150">
+        <v>10000</v>
       </c>
     </row>
     <row r="151">
@@ -13554,10 +13554,10 @@
         <v/>
       </c>
       <c r="AA153" t="str">
-        <v>Unknown</v>
-      </c>
-      <c r="AB153" t="str">
-        <v/>
+        <v>Payable</v>
+      </c>
+      <c r="AB153">
+        <v>300</v>
       </c>
     </row>
     <row r="154">
@@ -13726,10 +13726,10 @@
         <v/>
       </c>
       <c r="AA155" t="str">
-        <v>Unknown</v>
-      </c>
-      <c r="AB155" t="str">
-        <v/>
+        <v>Payable</v>
+      </c>
+      <c r="AB155">
+        <v>5000</v>
       </c>
     </row>
     <row r="156">
@@ -13812,10 +13812,10 @@
         <v/>
       </c>
       <c r="AA156" t="str">
-        <v>Unknown</v>
-      </c>
-      <c r="AB156" t="str">
-        <v/>
+        <v>Payable</v>
+      </c>
+      <c r="AB156">
+        <v>5000</v>
       </c>
     </row>
     <row r="157">
@@ -14414,10 +14414,10 @@
         <v/>
       </c>
       <c r="AA163" t="str">
-        <v>Unknown</v>
-      </c>
-      <c r="AB163" t="str">
-        <v/>
+        <v>Payable</v>
+      </c>
+      <c r="AB163">
+        <v>5000</v>
       </c>
     </row>
     <row r="164">
@@ -14500,10 +14500,10 @@
         <v/>
       </c>
       <c r="AA164" t="str">
-        <v>Unknown</v>
-      </c>
-      <c r="AB164" t="str">
-        <v/>
+        <v>Payable</v>
+      </c>
+      <c r="AB164">
+        <v>5000</v>
       </c>
     </row>
     <row r="165">
@@ -15102,10 +15102,10 @@
         <v/>
       </c>
       <c r="AA171" t="str">
-        <v>Unknown</v>
-      </c>
-      <c r="AB171" t="str">
-        <v/>
+        <v>Payable</v>
+      </c>
+      <c r="AB171">
+        <v>5000</v>
       </c>
     </row>
     <row r="172">
@@ -15360,10 +15360,10 @@
         <v/>
       </c>
       <c r="AA174" t="str">
-        <v>Unknown</v>
-      </c>
-      <c r="AB174" t="str">
-        <v/>
+        <v>Payable</v>
+      </c>
+      <c r="AB174">
+        <v>100</v>
       </c>
     </row>
     <row r="175">
@@ -15532,10 +15532,10 @@
         <v/>
       </c>
       <c r="AA176" t="str">
-        <v>Unknown</v>
-      </c>
-      <c r="AB176" t="str">
-        <v/>
+        <v>Payable</v>
+      </c>
+      <c r="AB176">
+        <v>100</v>
       </c>
     </row>
     <row r="177">
@@ -15962,10 +15962,10 @@
         <v/>
       </c>
       <c r="AA181" t="str">
-        <v>Unknown</v>
-      </c>
-      <c r="AB181" t="str">
-        <v/>
+        <v>Payable</v>
+      </c>
+      <c r="AB181">
+        <v>5000</v>
       </c>
     </row>
     <row r="182">
@@ -16822,10 +16822,10 @@
         <v/>
       </c>
       <c r="AA191" t="str">
-        <v>Unknown</v>
-      </c>
-      <c r="AB191" t="str">
-        <v/>
+        <v>Payable</v>
+      </c>
+      <c r="AB191">
+        <v>5000</v>
       </c>
     </row>
     <row r="192">
@@ -17252,10 +17252,10 @@
         <v/>
       </c>
       <c r="AA196" t="str">
-        <v>Unknown</v>
-      </c>
-      <c r="AB196" t="str">
-        <v/>
+        <v>Payable</v>
+      </c>
+      <c r="AB196">
+        <v>100</v>
       </c>
     </row>
     <row r="197">
@@ -17682,10 +17682,10 @@
         <v/>
       </c>
       <c r="AA201" t="str">
-        <v>Unknown</v>
-      </c>
-      <c r="AB201" t="str">
-        <v/>
+        <v>Payable</v>
+      </c>
+      <c r="AB201">
+        <v>300</v>
       </c>
     </row>
     <row r="202">
@@ -17940,10 +17940,10 @@
         <v/>
       </c>
       <c r="AA204" t="str">
-        <v>Unknown</v>
-      </c>
-      <c r="AB204" t="str">
-        <v/>
+        <v>Payable</v>
+      </c>
+      <c r="AB204">
+        <v>5000</v>
       </c>
     </row>
     <row r="205">
@@ -18112,10 +18112,10 @@
         <v/>
       </c>
       <c r="AA206" t="str">
-        <v>Unknown</v>
-      </c>
-      <c r="AB206" t="str">
-        <v/>
+        <v>Payable</v>
+      </c>
+      <c r="AB206">
+        <v>5000</v>
       </c>
     </row>
     <row r="207">
@@ -18370,10 +18370,10 @@
         <v/>
       </c>
       <c r="AA209" t="str">
-        <v>Unknown</v>
-      </c>
-      <c r="AB209" t="str">
-        <v/>
+        <v>Paid</v>
+      </c>
+      <c r="AB209">
+        <v>100</v>
       </c>
     </row>
     <row r="210">
@@ -18542,10 +18542,10 @@
         <v/>
       </c>
       <c r="AA211" t="str">
-        <v>Unknown</v>
-      </c>
-      <c r="AB211" t="str">
-        <v/>
+        <v>Payable</v>
+      </c>
+      <c r="AB211">
+        <v>5000</v>
       </c>
     </row>
     <row r="212">
@@ -18800,10 +18800,10 @@
         <v/>
       </c>
       <c r="AA214" t="str">
-        <v>Unknown</v>
-      </c>
-      <c r="AB214" t="str">
-        <v/>
+        <v>Payable</v>
+      </c>
+      <c r="AB214">
+        <v>5000</v>
       </c>
     </row>
     <row r="215">
@@ -18886,10 +18886,10 @@
         <v/>
       </c>
       <c r="AA215" t="str">
-        <v>Unknown</v>
-      </c>
-      <c r="AB215" t="str">
-        <v/>
+        <v>Payable</v>
+      </c>
+      <c r="AB215">
+        <v>5000</v>
       </c>
     </row>
     <row r="216">
@@ -19316,10 +19316,10 @@
         <v/>
       </c>
       <c r="AA220" t="str">
-        <v>Unknown</v>
-      </c>
-      <c r="AB220" t="str">
-        <v/>
+        <v>Payable</v>
+      </c>
+      <c r="AB220">
+        <v>5000</v>
       </c>
     </row>
     <row r="221">
@@ -19402,10 +19402,10 @@
         <v/>
       </c>
       <c r="AA221" t="str">
-        <v>Unknown</v>
-      </c>
-      <c r="AB221" t="str">
-        <v/>
+        <v>Payable</v>
+      </c>
+      <c r="AB221">
+        <v>300</v>
       </c>
     </row>
     <row r="222">
@@ -19574,10 +19574,10 @@
         <v/>
       </c>
       <c r="AA223" t="str">
-        <v>Unknown</v>
-      </c>
-      <c r="AB223" t="str">
-        <v/>
+        <v>Payable</v>
+      </c>
+      <c r="AB223">
+        <v>10000</v>
       </c>
     </row>
     <row r="224">
@@ -20950,10 +20950,10 @@
         <v/>
       </c>
       <c r="AA239" t="str">
-        <v>Unknown</v>
-      </c>
-      <c r="AB239" t="str">
-        <v/>
+        <v>Payable</v>
+      </c>
+      <c r="AB239">
+        <v>5000</v>
       </c>
     </row>
     <row r="240">
@@ -21982,10 +21982,10 @@
         <v/>
       </c>
       <c r="AA251" t="str">
-        <v>Unknown</v>
-      </c>
-      <c r="AB251" t="str">
-        <v/>
+        <v>Payable</v>
+      </c>
+      <c r="AB251">
+        <v>5000</v>
       </c>
     </row>
     <row r="252">
@@ -22154,10 +22154,10 @@
         <v/>
       </c>
       <c r="AA253" t="str">
-        <v>Unknown</v>
-      </c>
-      <c r="AB253" t="str">
-        <v/>
+        <v>Paid</v>
+      </c>
+      <c r="AB253">
+        <v>300</v>
       </c>
     </row>
     <row r="254">
@@ -22326,10 +22326,10 @@
         <v/>
       </c>
       <c r="AA255" t="str">
-        <v>Unknown</v>
-      </c>
-      <c r="AB255" t="str">
-        <v/>
+        <v>Payable</v>
+      </c>
+      <c r="AB255">
+        <v>5000</v>
       </c>
     </row>
     <row r="256">
@@ -22498,10 +22498,10 @@
         <v/>
       </c>
       <c r="AA257" t="str">
-        <v>Unknown</v>
-      </c>
-      <c r="AB257" t="str">
-        <v/>
+        <v>Payable</v>
+      </c>
+      <c r="AB257">
+        <v>5000</v>
       </c>
     </row>
     <row r="258">
@@ -22584,10 +22584,10 @@
         <v/>
       </c>
       <c r="AA258" t="str">
-        <v>Unknown</v>
-      </c>
-      <c r="AB258" t="str">
-        <v/>
+        <v>Paid</v>
+      </c>
+      <c r="AB258">
+        <v>50</v>
       </c>
     </row>
     <row r="259">
@@ -22670,10 +22670,10 @@
         <v/>
       </c>
       <c r="AA259" t="str">
-        <v>Unknown</v>
-      </c>
-      <c r="AB259" t="str">
-        <v/>
+        <v>Paid</v>
+      </c>
+      <c r="AB259">
+        <v>50</v>
       </c>
     </row>
     <row r="260">
@@ -22756,10 +22756,10 @@
         <v/>
       </c>
       <c r="AA260" t="str">
-        <v>Unknown</v>
-      </c>
-      <c r="AB260" t="str">
-        <v/>
+        <v>Paid</v>
+      </c>
+      <c r="AB260">
+        <v>2000</v>
       </c>
     </row>
     <row r="261">
@@ -22842,10 +22842,10 @@
         <v/>
       </c>
       <c r="AA261" t="str">
-        <v>Unknown</v>
-      </c>
-      <c r="AB261" t="str">
-        <v/>
+        <v>Paid</v>
+      </c>
+      <c r="AB261">
+        <v>500</v>
       </c>
     </row>
     <row r="262">
@@ -22928,10 +22928,10 @@
         <v/>
       </c>
       <c r="AA262" t="str">
-        <v>Unknown</v>
-      </c>
-      <c r="AB262" t="str">
-        <v/>
+        <v>Paid</v>
+      </c>
+      <c r="AB262">
+        <v>500</v>
       </c>
     </row>
     <row r="263">
@@ -23014,10 +23014,10 @@
         <v/>
       </c>
       <c r="AA263" t="str">
-        <v>Unknown</v>
-      </c>
-      <c r="AB263" t="str">
-        <v/>
+        <v>Paid</v>
+      </c>
+      <c r="AB263">
+        <v>200</v>
       </c>
     </row>
     <row r="264">
@@ -23100,10 +23100,10 @@
         <v/>
       </c>
       <c r="AA264" t="str">
-        <v>Unknown</v>
-      </c>
-      <c r="AB264" t="str">
-        <v/>
+        <v>Paid</v>
+      </c>
+      <c r="AB264">
+        <v>50</v>
       </c>
     </row>
     <row r="265">
@@ -23186,10 +23186,10 @@
         <v/>
       </c>
       <c r="AA265" t="str">
-        <v>Unknown</v>
-      </c>
-      <c r="AB265" t="str">
-        <v/>
+        <v>Paid</v>
+      </c>
+      <c r="AB265">
+        <v>100</v>
       </c>
     </row>
     <row r="266">
@@ -23272,10 +23272,10 @@
         <v/>
       </c>
       <c r="AA266" t="str">
-        <v>Unknown</v>
-      </c>
-      <c r="AB266" t="str">
-        <v/>
+        <v>Paid</v>
+      </c>
+      <c r="AB266">
+        <v>50</v>
       </c>
     </row>
     <row r="267">
@@ -23358,10 +23358,10 @@
         <v/>
       </c>
       <c r="AA267" t="str">
-        <v>Unknown</v>
-      </c>
-      <c r="AB267" t="str">
-        <v/>
+        <v>Paid</v>
+      </c>
+      <c r="AB267">
+        <v>50</v>
       </c>
     </row>
     <row r="268">
@@ -23444,10 +23444,10 @@
         <v/>
       </c>
       <c r="AA268" t="str">
-        <v>Unknown</v>
-      </c>
-      <c r="AB268" t="str">
-        <v/>
+        <v>Paid</v>
+      </c>
+      <c r="AB268">
+        <v>50</v>
       </c>
     </row>
     <row r="269">
@@ -23530,10 +23530,10 @@
         <v/>
       </c>
       <c r="AA269" t="str">
-        <v>Unknown</v>
-      </c>
-      <c r="AB269" t="str">
-        <v/>
+        <v>Paid</v>
+      </c>
+      <c r="AB269">
+        <v>2000</v>
       </c>
     </row>
     <row r="270">
@@ -23616,10 +23616,10 @@
         <v/>
       </c>
       <c r="AA270" t="str">
-        <v>Unknown</v>
-      </c>
-      <c r="AB270" t="str">
-        <v/>
+        <v>Paid</v>
+      </c>
+      <c r="AB270">
+        <v>500</v>
       </c>
     </row>
     <row r="271">
@@ -23874,10 +23874,10 @@
         <v/>
       </c>
       <c r="AA273" t="str">
-        <v>Unknown</v>
-      </c>
-      <c r="AB273" t="str">
-        <v/>
+        <v>Payable</v>
+      </c>
+      <c r="AB273">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
